--- a/data/pca/factorExposure/factorExposure_2014-10-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-10-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.02009001413159876</v>
+        <v>0.01809054035757787</v>
       </c>
       <c r="C2">
-        <v>-0.09947374035143282</v>
+        <v>0.07459238872467316</v>
       </c>
       <c r="D2">
-        <v>-0.02272731281710759</v>
+        <v>0.02447096837837311</v>
       </c>
       <c r="E2">
-        <v>0.1529735679479477</v>
+        <v>-0.0745039234612655</v>
       </c>
       <c r="F2">
-        <v>0.205241333758459</v>
+        <v>-0.145610572329314</v>
       </c>
       <c r="G2">
-        <v>0.09744215475685371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.05490993894397669</v>
+      </c>
+      <c r="H2">
+        <v>0.03513159744895685</v>
+      </c>
+      <c r="I2">
+        <v>0.006379004802283132</v>
+      </c>
+      <c r="J2">
+        <v>-0.1935545511281592</v>
+      </c>
+      <c r="K2">
+        <v>-0.1140172733700112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.0471825274749385</v>
+        <v>0.02237586563968072</v>
       </c>
       <c r="C4">
-        <v>-0.1615486721966307</v>
+        <v>0.1526768672731124</v>
       </c>
       <c r="D4">
-        <v>0.01943380998888303</v>
+        <v>0.05557486312376628</v>
       </c>
       <c r="E4">
-        <v>0.08148204073513209</v>
+        <v>0.0290708918030696</v>
       </c>
       <c r="F4">
-        <v>-0.04970373800171664</v>
+        <v>-0.08917054839700821</v>
       </c>
       <c r="G4">
-        <v>0.01716805985322001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.0235676875666158</v>
+      </c>
+      <c r="H4">
+        <v>0.1048943290140295</v>
+      </c>
+      <c r="I4">
+        <v>-0.01375330635434046</v>
+      </c>
+      <c r="J4">
+        <v>-0.1531064908990783</v>
+      </c>
+      <c r="K4">
+        <v>0.08520523300974568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.04068394360207492</v>
+        <v>0.04091487986058275</v>
       </c>
       <c r="C6">
-        <v>-0.06933179024775214</v>
+        <v>0.08400668335842344</v>
       </c>
       <c r="D6">
-        <v>0.02914416510692585</v>
+        <v>0.01982269705747249</v>
       </c>
       <c r="E6">
-        <v>0.1096148762989874</v>
+        <v>-0.04920109871475883</v>
       </c>
       <c r="F6">
-        <v>0.0100257040032861</v>
+        <v>-0.0684516073056391</v>
       </c>
       <c r="G6">
-        <v>-0.01824049859116572</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.05060968324211008</v>
+      </c>
+      <c r="H6">
+        <v>0.04601194712845095</v>
+      </c>
+      <c r="I6">
+        <v>0.09497933477277801</v>
+      </c>
+      <c r="J6">
+        <v>-0.03123320031239651</v>
+      </c>
+      <c r="K6">
+        <v>-0.03477575118949111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.00843159467617622</v>
+        <v>0.01280483465634201</v>
       </c>
       <c r="C7">
-        <v>-0.05177270685250327</v>
+        <v>0.06722962896849048</v>
       </c>
       <c r="D7">
-        <v>0.007760955201155016</v>
+        <v>0.01693824775196295</v>
       </c>
       <c r="E7">
-        <v>0.07568797689732337</v>
+        <v>0.01907972155019121</v>
       </c>
       <c r="F7">
-        <v>-0.01524289059892877</v>
+        <v>-0.029594877687024</v>
       </c>
       <c r="G7">
-        <v>0.02418044518061695</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.05883701716909448</v>
+      </c>
+      <c r="H7">
+        <v>0.0968295049944746</v>
+      </c>
+      <c r="I7">
+        <v>0.0105013765795783</v>
+      </c>
+      <c r="J7">
+        <v>-0.04825413722127741</v>
+      </c>
+      <c r="K7">
+        <v>-0.004806489063910772</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.002532446009417943</v>
+        <v>-0.0016037525331115</v>
       </c>
       <c r="C8">
-        <v>-0.07101026035380284</v>
+        <v>0.06748321001808698</v>
       </c>
       <c r="D8">
-        <v>0.01617990063904824</v>
+        <v>0.03896633799116211</v>
       </c>
       <c r="E8">
-        <v>0.08607040781163121</v>
+        <v>-0.007760329556361308</v>
       </c>
       <c r="F8">
-        <v>0.0230364255977091</v>
+        <v>-0.06390219589495121</v>
       </c>
       <c r="G8">
-        <v>0.0590592619989461</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.02588223386850257</v>
+      </c>
+      <c r="H8">
+        <v>0.05344464934880086</v>
+      </c>
+      <c r="I8">
+        <v>-0.003164323668767629</v>
+      </c>
+      <c r="J8">
+        <v>-0.01357181991857838</v>
+      </c>
+      <c r="K8">
+        <v>0.006678466857410043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.02670060885327859</v>
+        <v>0.01491939489928929</v>
       </c>
       <c r="C9">
-        <v>-0.1339898263944155</v>
+        <v>0.1161604164021095</v>
       </c>
       <c r="D9">
-        <v>0.02231305848961843</v>
+        <v>0.03751934759500044</v>
       </c>
       <c r="E9">
-        <v>0.05342133176529929</v>
+        <v>0.003473896581785321</v>
       </c>
       <c r="F9">
-        <v>-0.02656936372838339</v>
+        <v>-0.04244918202944663</v>
       </c>
       <c r="G9">
-        <v>-0.02169697022232264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.009217321968016843</v>
+      </c>
+      <c r="H9">
+        <v>0.09215177213610215</v>
+      </c>
+      <c r="I9">
+        <v>0.01928640604173389</v>
+      </c>
+      <c r="J9">
+        <v>-0.07148515261565461</v>
+      </c>
+      <c r="K9">
+        <v>0.05666921357735182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2674808840975252</v>
+        <v>0.2502046979834933</v>
       </c>
       <c r="C10">
-        <v>0.1312368196171458</v>
+        <v>-0.1032678286181054</v>
       </c>
       <c r="D10">
-        <v>-0.02039580390900487</v>
+        <v>-0.002332340782400272</v>
       </c>
       <c r="E10">
-        <v>-0.02085916246711422</v>
+        <v>-0.01248773831600199</v>
       </c>
       <c r="F10">
-        <v>-0.03236690189824954</v>
+        <v>-0.001748253396150598</v>
       </c>
       <c r="G10">
-        <v>-0.02684029726810717</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.0187243210231473</v>
+      </c>
+      <c r="H10">
+        <v>0.06408065768871223</v>
+      </c>
+      <c r="I10">
+        <v>-0.1720624778918912</v>
+      </c>
+      <c r="J10">
+        <v>0.08794846251460144</v>
+      </c>
+      <c r="K10">
+        <v>0.04429128727308109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.01596678972953924</v>
+        <v>0.01637218522387503</v>
       </c>
       <c r="C11">
-        <v>-0.06595789411374189</v>
+        <v>0.08220360795869137</v>
       </c>
       <c r="D11">
-        <v>0.01578274867020967</v>
+        <v>0.0295825791838753</v>
       </c>
       <c r="E11">
-        <v>0.02910849319293179</v>
+        <v>0.01067904532124982</v>
       </c>
       <c r="F11">
-        <v>-0.05511981179427648</v>
+        <v>-0.002322571019227713</v>
       </c>
       <c r="G11">
-        <v>-0.03769219985549449</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.0239531255994795</v>
+      </c>
+      <c r="H11">
+        <v>0.0324048650287988</v>
+      </c>
+      <c r="I11">
+        <v>0.007839363283929573</v>
+      </c>
+      <c r="J11">
+        <v>0.03178011147017777</v>
+      </c>
+      <c r="K11">
+        <v>0.03410200458963145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.01293618999763073</v>
+        <v>0.0168620452272585</v>
       </c>
       <c r="C12">
-        <v>-0.06355224423632556</v>
+        <v>0.06369412246871221</v>
       </c>
       <c r="D12">
-        <v>0.01975030156773264</v>
+        <v>0.01822575851823287</v>
       </c>
       <c r="E12">
-        <v>0.01759435636791541</v>
+        <v>-0.01560041413177568</v>
       </c>
       <c r="F12">
-        <v>-0.02490238704334674</v>
+        <v>0.002873657799623343</v>
       </c>
       <c r="G12">
-        <v>-0.06667103952869641</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.03155918072443018</v>
+      </c>
+      <c r="H12">
+        <v>0.03299625828121509</v>
+      </c>
+      <c r="I12">
+        <v>0.009095201845076749</v>
+      </c>
+      <c r="J12">
+        <v>0.01102146280527432</v>
+      </c>
+      <c r="K12">
+        <v>0.03883713072880073</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.02832119223363045</v>
+        <v>0.005906629254821307</v>
       </c>
       <c r="C13">
-        <v>-0.1016443870134052</v>
+        <v>0.1125930493214856</v>
       </c>
       <c r="D13">
-        <v>0.03681669519671013</v>
+        <v>0.03502208213865655</v>
       </c>
       <c r="E13">
-        <v>0.1281887905747242</v>
+        <v>-0.1220399638360659</v>
       </c>
       <c r="F13">
-        <v>-0.02803861035430483</v>
+        <v>-0.12196572986442</v>
       </c>
       <c r="G13">
-        <v>-0.1171930353098355</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.0947822138899294</v>
+      </c>
+      <c r="H13">
+        <v>0.09798790945443922</v>
+      </c>
+      <c r="I13">
+        <v>-0.2151725367429599</v>
+      </c>
+      <c r="J13">
+        <v>0.1675934266182408</v>
+      </c>
+      <c r="K13">
+        <v>-0.1221769245218721</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.0193787594575078</v>
+        <v>0.01879607623771248</v>
       </c>
       <c r="C14">
-        <v>-0.05888266661731568</v>
+        <v>0.07426105428470366</v>
       </c>
       <c r="D14">
-        <v>0.01058650446213389</v>
+        <v>0.03870664036197792</v>
       </c>
       <c r="E14">
-        <v>0.05815434899039821</v>
+        <v>-0.04407098817218589</v>
       </c>
       <c r="F14">
-        <v>-0.0001732098428401363</v>
+        <v>-0.03594398277252671</v>
       </c>
       <c r="G14">
-        <v>-0.05007613106703731</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.08515861762705215</v>
+      </c>
+      <c r="H14">
+        <v>0.2129943508939329</v>
+      </c>
+      <c r="I14">
+        <v>0.03993625730269307</v>
+      </c>
+      <c r="J14">
+        <v>0.1115183449779575</v>
+      </c>
+      <c r="K14">
+        <v>-0.1213056522800553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.01107089141023356</v>
+        <v>0.001392008858266891</v>
       </c>
       <c r="C15">
-        <v>-0.0824246975796374</v>
+        <v>0.07858279075098749</v>
       </c>
       <c r="D15">
-        <v>0.01408811480704937</v>
+        <v>0.02811585535575944</v>
       </c>
       <c r="E15">
-        <v>0.1093200868837514</v>
+        <v>0.002346429251512141</v>
       </c>
       <c r="F15">
-        <v>-0.01343885743432556</v>
+        <v>-0.04783994936488926</v>
       </c>
       <c r="G15">
-        <v>-0.01065159731611092</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.04930177999954373</v>
+      </c>
+      <c r="H15">
+        <v>0.07444248980249357</v>
+      </c>
+      <c r="I15">
+        <v>0.02620978221637899</v>
+      </c>
+      <c r="J15">
+        <v>0.04882423234453195</v>
+      </c>
+      <c r="K15">
+        <v>0.0003963328652500684</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.01838717026460568</v>
+        <v>0.01628669702995861</v>
       </c>
       <c r="C16">
-        <v>-0.06341588293111247</v>
+        <v>0.06788852480596316</v>
       </c>
       <c r="D16">
-        <v>0.008666388878915274</v>
+        <v>0.02108866096776735</v>
       </c>
       <c r="E16">
-        <v>0.02564609121551063</v>
+        <v>0.004691255715116991</v>
       </c>
       <c r="F16">
-        <v>-0.02995886783628591</v>
+        <v>-0.00390135726323725</v>
       </c>
       <c r="G16">
-        <v>-0.03933022420862136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02082602563796331</v>
+      </c>
+      <c r="H16">
+        <v>0.02524627361680573</v>
+      </c>
+      <c r="I16">
+        <v>0.01138065955326849</v>
+      </c>
+      <c r="J16">
+        <v>0.01281038525977843</v>
+      </c>
+      <c r="K16">
+        <v>0.02493148252032459</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.01842946320212841</v>
+        <v>0.01328000555874519</v>
       </c>
       <c r="C20">
-        <v>-0.07932181221613172</v>
+        <v>0.0831012621228809</v>
       </c>
       <c r="D20">
-        <v>-0.002115367331900024</v>
+        <v>0.01580271499264501</v>
       </c>
       <c r="E20">
-        <v>0.06469410284510213</v>
+        <v>0.02615925246374422</v>
       </c>
       <c r="F20">
-        <v>-0.06651686501519367</v>
+        <v>-0.02170709205335632</v>
       </c>
       <c r="G20">
-        <v>-0.04824100386974289</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.0588788210390996</v>
+      </c>
+      <c r="H20">
+        <v>0.07176683957184996</v>
+      </c>
+      <c r="I20">
+        <v>0.01955287497629562</v>
+      </c>
+      <c r="J20">
+        <v>-0.01477023159379169</v>
+      </c>
+      <c r="K20">
+        <v>0.01602247833880788</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.01570508530801958</v>
+        <v>0.01461754601112042</v>
       </c>
       <c r="C21">
-        <v>-0.1032917850602678</v>
+        <v>0.08522620152276485</v>
       </c>
       <c r="D21">
-        <v>-0.02969429777337288</v>
+        <v>0.02057355546121796</v>
       </c>
       <c r="E21">
-        <v>0.04047984115938617</v>
+        <v>-0.08429463424711377</v>
       </c>
       <c r="F21">
-        <v>0.03735061409703633</v>
+        <v>-0.02424103461655048</v>
       </c>
       <c r="G21">
-        <v>-0.04210118353658219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.005374128074807152</v>
+      </c>
+      <c r="H21">
+        <v>0.1551998609122031</v>
+      </c>
+      <c r="I21">
+        <v>-0.0368493132575794</v>
+      </c>
+      <c r="J21">
+        <v>0.04335905010902417</v>
+      </c>
+      <c r="K21">
+        <v>0.004261163577204755</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.06078250446034139</v>
+        <v>0.005776701185146785</v>
       </c>
       <c r="C22">
-        <v>-0.1419895731306868</v>
+        <v>0.1492000791087888</v>
       </c>
       <c r="D22">
-        <v>-0.1177074581586696</v>
+        <v>0.01030661489860575</v>
       </c>
       <c r="E22">
-        <v>0.2634249474735143</v>
+        <v>0.04746789631587015</v>
       </c>
       <c r="F22">
-        <v>0.0394561670736442</v>
+        <v>-0.47613689272707</v>
       </c>
       <c r="G22">
-        <v>0.2971174850236127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.1489973000240123</v>
+      </c>
+      <c r="H22">
+        <v>-0.3307844308650102</v>
+      </c>
+      <c r="I22">
+        <v>-0.03891518049472534</v>
+      </c>
+      <c r="J22">
+        <v>0.209670497799379</v>
+      </c>
+      <c r="K22">
+        <v>0.05299717064623058</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.06052718307582999</v>
+        <v>0.01062414836282587</v>
       </c>
       <c r="C23">
-        <v>-0.1426257655995239</v>
+        <v>0.1522240728742254</v>
       </c>
       <c r="D23">
-        <v>-0.1175494425245674</v>
+        <v>0.007711240177857816</v>
       </c>
       <c r="E23">
-        <v>0.2607647271040887</v>
+        <v>0.04439293100040474</v>
       </c>
       <c r="F23">
-        <v>0.03880612645971447</v>
+        <v>-0.4610207569730208</v>
       </c>
       <c r="G23">
-        <v>0.2950046562060165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.1412403833472894</v>
+      </c>
+      <c r="H23">
+        <v>-0.3061005778517453</v>
+      </c>
+      <c r="I23">
+        <v>-0.03459289057680774</v>
+      </c>
+      <c r="J23">
+        <v>0.1958781936160101</v>
+      </c>
+      <c r="K23">
+        <v>0.06239306451742665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.01126183029958458</v>
+        <v>0.01723317790749098</v>
       </c>
       <c r="C24">
-        <v>-0.07755654738405543</v>
+        <v>0.07664910857131477</v>
       </c>
       <c r="D24">
-        <v>0.03122769889657213</v>
+        <v>0.03468866989559104</v>
       </c>
       <c r="E24">
-        <v>0.02423089834713197</v>
+        <v>0.007669481596093222</v>
       </c>
       <c r="F24">
-        <v>-0.0396065906348004</v>
+        <v>-0.001385773310707527</v>
       </c>
       <c r="G24">
-        <v>-0.05125831375472946</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02805869359805883</v>
+      </c>
+      <c r="H24">
+        <v>0.04146220269492048</v>
+      </c>
+      <c r="I24">
+        <v>0.008544360535888355</v>
+      </c>
+      <c r="J24">
+        <v>0.01526778607685005</v>
+      </c>
+      <c r="K24">
+        <v>0.03708662039874751</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.01503411194674492</v>
+        <v>0.02165207094441344</v>
       </c>
       <c r="C25">
-        <v>-0.07039088054251111</v>
+        <v>0.07371948994421404</v>
       </c>
       <c r="D25">
-        <v>0.007971578883067204</v>
+        <v>0.02328391244254525</v>
       </c>
       <c r="E25">
-        <v>0.02407515928982566</v>
+        <v>0.008635877454939119</v>
       </c>
       <c r="F25">
-        <v>-0.04656175128058593</v>
+        <v>-0.005234802369829912</v>
       </c>
       <c r="G25">
-        <v>-0.04854932316888509</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02990446574396052</v>
+      </c>
+      <c r="H25">
+        <v>0.03426293914389234</v>
+      </c>
+      <c r="I25">
+        <v>-0.002595519283743613</v>
+      </c>
+      <c r="J25">
+        <v>0.0282511962042426</v>
+      </c>
+      <c r="K25">
+        <v>0.02837928793521828</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.01694021844405261</v>
+        <v>0.02476574732746651</v>
       </c>
       <c r="C26">
-        <v>-0.05753744099485801</v>
+        <v>0.06463370389032862</v>
       </c>
       <c r="D26">
-        <v>0.03131816803053591</v>
+        <v>0.05269400632570117</v>
       </c>
       <c r="E26">
-        <v>0.03571075448352829</v>
+        <v>0.001275124893523114</v>
       </c>
       <c r="F26">
-        <v>0.003654155649805978</v>
+        <v>0.0006383694818877725</v>
       </c>
       <c r="G26">
-        <v>-0.03253256471513985</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.003579090127745251</v>
+      </c>
+      <c r="H26">
+        <v>0.1049737936732907</v>
+      </c>
+      <c r="I26">
+        <v>0.04763582647423188</v>
+      </c>
+      <c r="J26">
+        <v>-0.08439261866765541</v>
+      </c>
+      <c r="K26">
+        <v>0.07518970887153126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3464339068699429</v>
+        <v>0.3187982708802715</v>
       </c>
       <c r="C28">
-        <v>0.1399732891487046</v>
+        <v>-0.1147743604288068</v>
       </c>
       <c r="D28">
-        <v>-0.01743568169603626</v>
+        <v>-0.02605644674404269</v>
       </c>
       <c r="E28">
-        <v>-0.0965802585552831</v>
+        <v>-0.005595443308989771</v>
       </c>
       <c r="F28">
-        <v>0.02822310074595911</v>
+        <v>-0.003008555056283964</v>
       </c>
       <c r="G28">
-        <v>-0.01942830722493904</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.1142161454177223</v>
+      </c>
+      <c r="H28">
+        <v>0.08021237811064517</v>
+      </c>
+      <c r="I28">
+        <v>-0.186055262526476</v>
+      </c>
+      <c r="J28">
+        <v>-0.04056881518161282</v>
+      </c>
+      <c r="K28">
+        <v>0.006914278107336585</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.02128362529317323</v>
+        <v>0.01404303458234544</v>
       </c>
       <c r="C29">
-        <v>-0.05741367646600298</v>
+        <v>0.07693407535777082</v>
       </c>
       <c r="D29">
-        <v>0.01988002593773067</v>
+        <v>0.04301605719029645</v>
       </c>
       <c r="E29">
-        <v>0.09798944440109549</v>
+        <v>-0.05413188374606301</v>
       </c>
       <c r="F29">
-        <v>-0.0267067144344124</v>
+        <v>-0.06464806193228455</v>
       </c>
       <c r="G29">
-        <v>-0.07731107383778954</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.1385701682709239</v>
+      </c>
+      <c r="H29">
+        <v>0.3031965549218849</v>
+      </c>
+      <c r="I29">
+        <v>0.04469486833822436</v>
+      </c>
+      <c r="J29">
+        <v>0.1665528541599532</v>
+      </c>
+      <c r="K29">
+        <v>-0.2299686877953565</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.04822161300912492</v>
+        <v>0.02846901577705832</v>
       </c>
       <c r="C30">
-        <v>-0.1739621692140409</v>
+        <v>0.1516527274036094</v>
       </c>
       <c r="D30">
-        <v>0.03911804051686071</v>
+        <v>0.0510820848198785</v>
       </c>
       <c r="E30">
-        <v>0.07605623263595124</v>
+        <v>0.009723089155093277</v>
       </c>
       <c r="F30">
-        <v>-0.01014297422862711</v>
+        <v>-0.07249503379872693</v>
       </c>
       <c r="G30">
-        <v>0.03664553728322332</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01458900206695298</v>
+      </c>
+      <c r="H30">
+        <v>0.01448748622588712</v>
+      </c>
+      <c r="I30">
+        <v>0.04251512456367565</v>
+      </c>
+      <c r="J30">
+        <v>-0.08323370237194148</v>
+      </c>
+      <c r="K30">
+        <v>0.02568296859185899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.003866022052804958</v>
+        <v>0.01291515672484378</v>
       </c>
       <c r="C31">
-        <v>-0.09384082649851534</v>
+        <v>0.09530226873830713</v>
       </c>
       <c r="D31">
-        <v>0.03464585551922654</v>
+        <v>0.03642119036093211</v>
       </c>
       <c r="E31">
-        <v>-0.04603642226982754</v>
+        <v>-0.0004822944811415585</v>
       </c>
       <c r="F31">
-        <v>0.01258438628214668</v>
+        <v>0.0210862549696015</v>
       </c>
       <c r="G31">
-        <v>0.003075913176907686</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.05041945268538327</v>
+      </c>
+      <c r="H31">
+        <v>0.03606980490878975</v>
+      </c>
+      <c r="I31">
+        <v>0.00449682635277762</v>
+      </c>
+      <c r="J31">
+        <v>0.04530455285278219</v>
+      </c>
+      <c r="K31">
+        <v>0.02284357927124766</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.03764177113072419</v>
+        <v>0.02410063232728033</v>
       </c>
       <c r="C32">
-        <v>-0.0835513253545712</v>
+        <v>0.06530514675654357</v>
       </c>
       <c r="D32">
-        <v>-0.01447245702153446</v>
+        <v>0.01745486241718302</v>
       </c>
       <c r="E32">
-        <v>0.1545358183387898</v>
+        <v>-0.07739256862304089</v>
       </c>
       <c r="F32">
-        <v>0.05111875243792011</v>
+        <v>-0.1124645664299925</v>
       </c>
       <c r="G32">
-        <v>-0.03262050102823553</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.03649563042361584</v>
+      </c>
+      <c r="H32">
+        <v>0.1639403661290692</v>
+      </c>
+      <c r="I32">
+        <v>-0.2414370297122252</v>
+      </c>
+      <c r="J32">
+        <v>-0.0314282582457137</v>
+      </c>
+      <c r="K32">
+        <v>-0.1833858956196378</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.02219522852221292</v>
+        <v>0.01803203446041002</v>
       </c>
       <c r="C33">
-        <v>-0.09113904969845876</v>
+        <v>0.1090886663171767</v>
       </c>
       <c r="D33">
-        <v>0.03864516722014197</v>
+        <v>0.03619305728095908</v>
       </c>
       <c r="E33">
-        <v>0.04069880757166043</v>
+        <v>0.003709633519030156</v>
       </c>
       <c r="F33">
-        <v>-0.01236754315528009</v>
+        <v>-0.03007880704246046</v>
       </c>
       <c r="G33">
-        <v>-0.03230367457184363</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.02710806546806796</v>
+      </c>
+      <c r="H33">
+        <v>0.05872223320167573</v>
+      </c>
+      <c r="I33">
+        <v>-0.01471433792958319</v>
+      </c>
+      <c r="J33">
+        <v>0.003150494524970057</v>
+      </c>
+      <c r="K33">
+        <v>0.02594382067456756</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.006890885680071438</v>
+        <v>0.01644579593140647</v>
       </c>
       <c r="C34">
-        <v>-0.05657795517953559</v>
+        <v>0.05495924219158402</v>
       </c>
       <c r="D34">
-        <v>0.01532352882274032</v>
+        <v>0.01781835376036276</v>
       </c>
       <c r="E34">
-        <v>0.02635181650932937</v>
+        <v>-0.001503142808086791</v>
       </c>
       <c r="F34">
-        <v>-0.01427834955054822</v>
+        <v>-0.0001859132018512608</v>
       </c>
       <c r="G34">
-        <v>-0.04022772901399334</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.0244905456978668</v>
+      </c>
+      <c r="H34">
+        <v>0.008064902455940536</v>
+      </c>
+      <c r="I34">
+        <v>0.001368455140393536</v>
+      </c>
+      <c r="J34">
+        <v>0.01324723125345769</v>
+      </c>
+      <c r="K34">
+        <v>0.03413319883460043</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.00398108980161159</v>
+        <v>0.007888508495575902</v>
       </c>
       <c r="C35">
-        <v>-0.01161006015907293</v>
+        <v>0.03650005948252255</v>
       </c>
       <c r="D35">
-        <v>-0.000457927850077486</v>
+        <v>0.01546536806604262</v>
       </c>
       <c r="E35">
-        <v>0.0215436902529894</v>
+        <v>-0.01168311317965582</v>
       </c>
       <c r="F35">
-        <v>-0.01050447088529857</v>
+        <v>-0.02325410312360386</v>
       </c>
       <c r="G35">
-        <v>-0.01689438235622547</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.05307292186622192</v>
+      </c>
+      <c r="H35">
+        <v>0.1533318745049893</v>
+      </c>
+      <c r="I35">
+        <v>-0.002967192646865078</v>
+      </c>
+      <c r="J35">
+        <v>0.1421728029894649</v>
+      </c>
+      <c r="K35">
+        <v>-0.1158342014426637</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.01368502877795237</v>
+        <v>0.01540156284456473</v>
       </c>
       <c r="C36">
-        <v>-0.05083368064561374</v>
+        <v>0.05088694825678369</v>
       </c>
       <c r="D36">
-        <v>0.03767200863474424</v>
+        <v>0.04122077400875034</v>
       </c>
       <c r="E36">
-        <v>0.02985634457827681</v>
+        <v>0.0003383398592127911</v>
       </c>
       <c r="F36">
-        <v>-0.003771880956833776</v>
+        <v>-0.01372786231568277</v>
       </c>
       <c r="G36">
-        <v>-0.02053702557635274</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.008152560558733458</v>
+      </c>
+      <c r="H36">
+        <v>0.06646358816833806</v>
+      </c>
+      <c r="I36">
+        <v>0.01734509071864567</v>
+      </c>
+      <c r="J36">
+        <v>-0.03424668676147848</v>
+      </c>
+      <c r="K36">
+        <v>0.05741749241072409</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.02618067671253656</v>
+        <v>0.01324733309718115</v>
       </c>
       <c r="C38">
-        <v>-0.04757319038684336</v>
+        <v>0.06366702690555641</v>
       </c>
       <c r="D38">
-        <v>0.02438752262133078</v>
+        <v>0.03207648195867584</v>
       </c>
       <c r="E38">
-        <v>0.03810445748988417</v>
+        <v>0.03010462907152031</v>
       </c>
       <c r="F38">
-        <v>-0.0230905539949611</v>
+        <v>-0.02929175151164599</v>
       </c>
       <c r="G38">
-        <v>-0.002701327036283711</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.004984452375154448</v>
+      </c>
+      <c r="H38">
+        <v>0.07679759728403354</v>
+      </c>
+      <c r="I38">
+        <v>-0.05783396088454878</v>
+      </c>
+      <c r="J38">
+        <v>0.03001208364188927</v>
+      </c>
+      <c r="K38">
+        <v>0.05813988669374717</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.01273285997446937</v>
+        <v>0.01761176169634919</v>
       </c>
       <c r="C39">
-        <v>-0.1364693492661857</v>
+        <v>0.1320993023289842</v>
       </c>
       <c r="D39">
-        <v>0.0221505078201397</v>
+        <v>0.04580528648478479</v>
       </c>
       <c r="E39">
-        <v>0.07079092142537258</v>
+        <v>-0.00388314448142612</v>
       </c>
       <c r="F39">
-        <v>-0.0435197332784295</v>
+        <v>-0.02258439588479519</v>
       </c>
       <c r="G39">
-        <v>-0.05205760838650323</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.04676476588112591</v>
+      </c>
+      <c r="H39">
+        <v>0.0402129045820341</v>
+      </c>
+      <c r="I39">
+        <v>0.06213925339878761</v>
+      </c>
+      <c r="J39">
+        <v>-0.008515768259042766</v>
+      </c>
+      <c r="K39">
+        <v>0.04287327654170111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.005703377876257474</v>
+        <v>0.015169065034353</v>
       </c>
       <c r="C40">
-        <v>-0.03475220648004774</v>
+        <v>0.06100054022503602</v>
       </c>
       <c r="D40">
-        <v>0.01042425822781676</v>
+        <v>0.02874409340646426</v>
       </c>
       <c r="E40">
-        <v>0.1618281439291437</v>
+        <v>-0.03940691151178455</v>
       </c>
       <c r="F40">
-        <v>-0.02053587944860086</v>
+        <v>-0.1035497665442495</v>
       </c>
       <c r="G40">
-        <v>0.01139925849561942</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.1298380508116578</v>
+      </c>
+      <c r="H40">
+        <v>0.01208269486613772</v>
+      </c>
+      <c r="I40">
+        <v>-0.06770403280544582</v>
+      </c>
+      <c r="J40">
+        <v>0.2916483849151372</v>
+      </c>
+      <c r="K40">
+        <v>0.04536961829639276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.01121936743061227</v>
+        <v>0.02174949734462431</v>
       </c>
       <c r="C41">
-        <v>-0.02056868521399875</v>
+        <v>0.049236149310808</v>
       </c>
       <c r="D41">
-        <v>0.0009935792759325091</v>
+        <v>0.01227204531384799</v>
       </c>
       <c r="E41">
-        <v>-0.01872777069209594</v>
+        <v>0.006394272473172702</v>
       </c>
       <c r="F41">
-        <v>0.007219669456246332</v>
+        <v>0.01605829140382549</v>
       </c>
       <c r="G41">
-        <v>0.01250362832096468</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.003187937901690138</v>
+      </c>
+      <c r="H41">
+        <v>0.03315764546440359</v>
+      </c>
+      <c r="I41">
+        <v>-0.03425541414564528</v>
+      </c>
+      <c r="J41">
+        <v>0.05738716046433652</v>
+      </c>
+      <c r="K41">
+        <v>0.001079269349204647</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.006927467242581056</v>
+        <v>0.01735846315629548</v>
       </c>
       <c r="C43">
-        <v>-0.02272038292182639</v>
+        <v>0.04598488676959326</v>
       </c>
       <c r="D43">
-        <v>0.01062417391535929</v>
+        <v>0.02743977619331243</v>
       </c>
       <c r="E43">
-        <v>0.004803309546805652</v>
+        <v>0.01735170014362399</v>
       </c>
       <c r="F43">
-        <v>-0.02332998754898488</v>
+        <v>0.0006649444528738659</v>
       </c>
       <c r="G43">
-        <v>0.001817335097931453</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.008920086485863836</v>
+      </c>
+      <c r="H43">
+        <v>0.04983739469903024</v>
+      </c>
+      <c r="I43">
+        <v>-0.006258558012891456</v>
+      </c>
+      <c r="J43">
+        <v>0.04695037987560488</v>
+      </c>
+      <c r="K43">
+        <v>-0.0004125925775081306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.02646028240954337</v>
+        <v>0.0110155632934288</v>
       </c>
       <c r="C44">
-        <v>-0.08213676971475999</v>
+        <v>0.09043971341743563</v>
       </c>
       <c r="D44">
-        <v>-0.001380626140936116</v>
+        <v>0.04726945343410373</v>
       </c>
       <c r="E44">
-        <v>0.1021255956665619</v>
+        <v>0.01166902908094929</v>
       </c>
       <c r="F44">
-        <v>-0.02367117694133033</v>
+        <v>-0.08701429109486745</v>
       </c>
       <c r="G44">
-        <v>0.01745267732327452</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.03320959122660976</v>
+      </c>
+      <c r="H44">
+        <v>0.03926375808525213</v>
+      </c>
+      <c r="I44">
+        <v>0.05928227252424219</v>
+      </c>
+      <c r="J44">
+        <v>-0.06715272608179887</v>
+      </c>
+      <c r="K44">
+        <v>-0.009296345325103912</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.009010423194140542</v>
+        <v>0.003685729680004162</v>
       </c>
       <c r="C46">
-        <v>-0.06072223297755496</v>
+        <v>0.06403965292197596</v>
       </c>
       <c r="D46">
-        <v>0.022608981161395</v>
+        <v>0.02279753893090537</v>
       </c>
       <c r="E46">
-        <v>0.06832439153047033</v>
+        <v>-0.007506604708211089</v>
       </c>
       <c r="F46">
-        <v>-0.02415634926237886</v>
+        <v>-0.01406670473207685</v>
       </c>
       <c r="G46">
-        <v>-0.04320386932826658</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.0450631397992525</v>
+      </c>
+      <c r="H46">
+        <v>0.1165349789665281</v>
+      </c>
+      <c r="I46">
+        <v>0.01080731384751173</v>
+      </c>
+      <c r="J46">
+        <v>0.08038562318325343</v>
+      </c>
+      <c r="K46">
+        <v>-0.03722305189636685</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.0132525648269998</v>
+        <v>0.02227171602213393</v>
       </c>
       <c r="C47">
-        <v>-0.1154436321667316</v>
+        <v>0.09874528535506409</v>
       </c>
       <c r="D47">
-        <v>0.03034281492584294</v>
+        <v>0.03830943167225794</v>
       </c>
       <c r="E47">
-        <v>-0.05798337595159648</v>
+        <v>-0.006615271135228591</v>
       </c>
       <c r="F47">
-        <v>0.02964694156558332</v>
+        <v>0.03371587280321967</v>
       </c>
       <c r="G47">
-        <v>-0.03418609041964474</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.01958916912504171</v>
+      </c>
+      <c r="H47">
+        <v>0.07906035420911307</v>
+      </c>
+      <c r="I47">
+        <v>-0.02904112074402805</v>
+      </c>
+      <c r="J47">
+        <v>0.0330898365504619</v>
+      </c>
+      <c r="K47">
+        <v>0.03029299985626292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.01951608001814872</v>
+        <v>0.02185833265423234</v>
       </c>
       <c r="C48">
-        <v>-0.05488881827682681</v>
+        <v>0.05815051047765109</v>
       </c>
       <c r="D48">
-        <v>0.05301057222627618</v>
+        <v>0.05152518249073753</v>
       </c>
       <c r="E48">
-        <v>0.02125486359853393</v>
+        <v>0.004316160822461093</v>
       </c>
       <c r="F48">
-        <v>-0.01171461675606881</v>
+        <v>-0.009269023244417602</v>
       </c>
       <c r="G48">
-        <v>-0.01921583150305653</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.0006685452298494875</v>
+      </c>
+      <c r="H48">
+        <v>0.1040687386659397</v>
+      </c>
+      <c r="I48">
+        <v>0.03547410107556253</v>
+      </c>
+      <c r="J48">
+        <v>-0.07785040093958155</v>
+      </c>
+      <c r="K48">
+        <v>0.07730893284129396</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.008573782263984675</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.02065060546753216</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-9.756706681377948e-05</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.009472122333689</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.03120932759460534</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.02382616382360507</v>
+      </c>
+      <c r="H49">
+        <v>-0.0176933704594883</v>
+      </c>
+      <c r="I49">
+        <v>0.04161823813214114</v>
+      </c>
+      <c r="J49">
+        <v>-0.01640037455498362</v>
+      </c>
+      <c r="K49">
+        <v>0.01080136084443041</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.006551119779950143</v>
+        <v>0.01416296440560363</v>
       </c>
       <c r="C50">
-        <v>-0.09477699579683524</v>
+        <v>0.09036792286929268</v>
       </c>
       <c r="D50">
-        <v>0.02145776747293602</v>
+        <v>0.02250365961154776</v>
       </c>
       <c r="E50">
-        <v>-0.02196102737182451</v>
+        <v>0.003795039844571122</v>
       </c>
       <c r="F50">
-        <v>0.008108547627368399</v>
+        <v>0.005974156997630549</v>
       </c>
       <c r="G50">
-        <v>0.01954701664730523</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.03446158573836246</v>
+      </c>
+      <c r="H50">
+        <v>0.06204244669267564</v>
+      </c>
+      <c r="I50">
+        <v>-0.04490965464070219</v>
+      </c>
+      <c r="J50">
+        <v>0.02972448150418691</v>
+      </c>
+      <c r="K50">
+        <v>0.004672103207447164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.01004471348845142</v>
+        <v>-0.004973969539313713</v>
       </c>
       <c r="C51">
-        <v>-0.06796206775295406</v>
+        <v>0.04163204156612439</v>
       </c>
       <c r="D51">
-        <v>-0.01581206104713185</v>
+        <v>0.01715660713381312</v>
       </c>
       <c r="E51">
-        <v>0.092084615626986</v>
+        <v>-0.01445287870381875</v>
       </c>
       <c r="F51">
-        <v>-0.004041271186838857</v>
+        <v>-0.04785877526877188</v>
       </c>
       <c r="G51">
-        <v>0.02826357937096008</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.01505754728373573</v>
+      </c>
+      <c r="H51">
+        <v>0.08750462892738588</v>
+      </c>
+      <c r="I51">
+        <v>0.02100852065078962</v>
+      </c>
+      <c r="J51">
+        <v>-0.114217697469061</v>
+      </c>
+      <c r="K51">
+        <v>0.004816428677864224</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.05747410834552064</v>
+        <v>0.05814842889060585</v>
       </c>
       <c r="C53">
-        <v>-0.1377675288399774</v>
+        <v>0.1354427131570526</v>
       </c>
       <c r="D53">
-        <v>0.05266179385288241</v>
+        <v>0.04700018244078832</v>
       </c>
       <c r="E53">
-        <v>-0.1130220852071861</v>
+        <v>0.004168726639051513</v>
       </c>
       <c r="F53">
-        <v>-0.02995267411138013</v>
+        <v>0.09355474955502326</v>
       </c>
       <c r="G53">
-        <v>-0.0129792607336525</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.0601838664836063</v>
+      </c>
+      <c r="H53">
+        <v>-0.00961049540267858</v>
+      </c>
+      <c r="I53">
+        <v>-0.04149817136274557</v>
+      </c>
+      <c r="J53">
+        <v>0.01949068674535237</v>
+      </c>
+      <c r="K53">
+        <v>0.06637646183376958</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.01712033237815783</v>
+        <v>0.01755166007461566</v>
       </c>
       <c r="C54">
-        <v>-0.05849284747070758</v>
+        <v>0.07221629306268119</v>
       </c>
       <c r="D54">
-        <v>-0.00115270980041813</v>
+        <v>0.004180700946179563</v>
       </c>
       <c r="E54">
-        <v>0.002823493390825205</v>
+        <v>0.001290004346034739</v>
       </c>
       <c r="F54">
-        <v>-0.03195143322870973</v>
+        <v>0.005211182875395552</v>
       </c>
       <c r="G54">
-        <v>-0.01055484961737764</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.0229493060237011</v>
+      </c>
+      <c r="H54">
+        <v>0.06325589859578376</v>
+      </c>
+      <c r="I54">
+        <v>0.01954659538390676</v>
+      </c>
+      <c r="J54">
+        <v>0.02847978944400145</v>
+      </c>
+      <c r="K54">
+        <v>-0.01985966976961978</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.04049922505743651</v>
+        <v>0.0339077509296192</v>
       </c>
       <c r="C55">
-        <v>-0.1004738792675809</v>
+        <v>0.09285948429891444</v>
       </c>
       <c r="D55">
-        <v>0.0582976930329082</v>
+        <v>0.04925353066291827</v>
       </c>
       <c r="E55">
-        <v>-0.06862841113882942</v>
+        <v>0.006967143129473576</v>
       </c>
       <c r="F55">
-        <v>0.0009996989206474505</v>
+        <v>0.07296234633598297</v>
       </c>
       <c r="G55">
-        <v>-0.02833914393479937</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.02891991204259511</v>
+      </c>
+      <c r="H55">
+        <v>-0.006612668078186912</v>
+      </c>
+      <c r="I55">
+        <v>0.01162525992028072</v>
+      </c>
+      <c r="J55">
+        <v>0.009112803542216896</v>
+      </c>
+      <c r="K55">
+        <v>0.0450597434578509</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.04556912702710578</v>
+        <v>0.04301295195124246</v>
       </c>
       <c r="C56">
-        <v>-0.1768835543200934</v>
+        <v>0.1666182909576056</v>
       </c>
       <c r="D56">
-        <v>0.05688711371531459</v>
+        <v>0.06774907660959247</v>
       </c>
       <c r="E56">
-        <v>-0.1497617673672695</v>
+        <v>-0.009626396854355514</v>
       </c>
       <c r="F56">
-        <v>0.01436216735265251</v>
+        <v>0.1383987673885574</v>
       </c>
       <c r="G56">
-        <v>-0.0005548122422073218</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1150104432314779</v>
+      </c>
+      <c r="H56">
+        <v>-0.03073200083937172</v>
+      </c>
+      <c r="I56">
+        <v>-0.02380151224805627</v>
+      </c>
+      <c r="J56">
+        <v>-0.01717695187382675</v>
+      </c>
+      <c r="K56">
+        <v>0.05637775613409916</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.0520997505830106</v>
+        <v>0.02094998574150619</v>
       </c>
       <c r="C58">
-        <v>-0.2346733234527657</v>
+        <v>0.1787438313953943</v>
       </c>
       <c r="D58">
-        <v>-0.1186320284680167</v>
+        <v>0.01770383954957907</v>
       </c>
       <c r="E58">
-        <v>0.2256449987662092</v>
+        <v>0.003360672573538614</v>
       </c>
       <c r="F58">
-        <v>-0.009920485327944017</v>
+        <v>-0.3190889807379891</v>
       </c>
       <c r="G58">
-        <v>0.3844107509629275</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1713806044100917</v>
+      </c>
+      <c r="H58">
+        <v>-0.01466120570385705</v>
+      </c>
+      <c r="I58">
+        <v>-0.01573374390415106</v>
+      </c>
+      <c r="J58">
+        <v>-0.3829638926548792</v>
+      </c>
+      <c r="K58">
+        <v>-0.2644620143156742</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2836428287277696</v>
+        <v>0.2863938603347403</v>
       </c>
       <c r="C59">
-        <v>0.04222080092607053</v>
+        <v>-0.04879679907898393</v>
       </c>
       <c r="D59">
-        <v>-0.03822047477983359</v>
+        <v>-0.002546341142037825</v>
       </c>
       <c r="E59">
-        <v>0.02723546261039511</v>
+        <v>-0.02379550823014184</v>
       </c>
       <c r="F59">
-        <v>0.0486069570280076</v>
+        <v>-0.03126897125281601</v>
       </c>
       <c r="G59">
-        <v>-0.03900852665997571</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.009655790002991649</v>
+      </c>
+      <c r="H59">
+        <v>-0.02066339630959359</v>
+      </c>
+      <c r="I59">
+        <v>-0.03432591652621074</v>
+      </c>
+      <c r="J59">
+        <v>0.01285411421381982</v>
+      </c>
+      <c r="K59">
+        <v>0.03175022344183517</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1283050121702987</v>
+        <v>0.1508320486473354</v>
       </c>
       <c r="C60">
-        <v>-0.1231898037135514</v>
+        <v>0.1424920063761571</v>
       </c>
       <c r="D60">
-        <v>0.04318843660112874</v>
+        <v>0.03573150405450738</v>
       </c>
       <c r="E60">
-        <v>0.0779557354032345</v>
+        <v>-0.04296429208738482</v>
       </c>
       <c r="F60">
-        <v>-0.1010026071224187</v>
+        <v>0.06250357711384652</v>
       </c>
       <c r="G60">
-        <v>-0.2941646527751735</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.281904820934213</v>
+      </c>
+      <c r="H60">
+        <v>-0.2299321563601431</v>
+      </c>
+      <c r="I60">
+        <v>0.036178257436475</v>
+      </c>
+      <c r="J60">
+        <v>-0.01924388278242791</v>
+      </c>
+      <c r="K60">
+        <v>-0.07178551339085865</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.01142411945124202</v>
+        <v>0.01975334525566219</v>
       </c>
       <c r="C61">
-        <v>-0.09445255838290011</v>
+        <v>0.1026644236030456</v>
       </c>
       <c r="D61">
-        <v>0.04063825979311254</v>
+        <v>0.04627478434331771</v>
       </c>
       <c r="E61">
-        <v>0.02877455739280907</v>
+        <v>-0.001919984418614543</v>
       </c>
       <c r="F61">
-        <v>-0.03810351578767811</v>
+        <v>0.01254559773628569</v>
       </c>
       <c r="G61">
-        <v>-0.07794195773390536</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.04695934819046559</v>
+      </c>
+      <c r="H61">
+        <v>0.05215037211590372</v>
+      </c>
+      <c r="I61">
+        <v>0.02865817755436807</v>
+      </c>
+      <c r="J61">
+        <v>0.02565313303345587</v>
+      </c>
+      <c r="K61">
+        <v>0.03665707715858167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.001619815098694378</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.006642498703220481</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.00135721717638629</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.0009869819929157356</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.01544045250625995</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.02048303722848134</v>
+      </c>
+      <c r="H62">
+        <v>0.006968772926583068</v>
+      </c>
+      <c r="I62">
+        <v>0.005127886023351425</v>
+      </c>
+      <c r="J62">
+        <v>0.00609849493210409</v>
+      </c>
+      <c r="K62">
+        <v>-0.00326854576231441</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.007862534278541508</v>
+        <v>0.02497781017011021</v>
       </c>
       <c r="C63">
-        <v>-0.06519754153855692</v>
+        <v>0.07309619091412031</v>
       </c>
       <c r="D63">
-        <v>0.01956982379827718</v>
+        <v>0.04909316107564711</v>
       </c>
       <c r="E63">
-        <v>0.012953909705238</v>
+        <v>-0.001972946291864118</v>
       </c>
       <c r="F63">
-        <v>-0.02900173075206115</v>
+        <v>0.003271121031871412</v>
       </c>
       <c r="G63">
-        <v>-0.03050046774821473</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.0183069256911522</v>
+      </c>
+      <c r="H63">
+        <v>0.05647627208469905</v>
+      </c>
+      <c r="I63">
+        <v>0.005715415524930898</v>
+      </c>
+      <c r="J63">
+        <v>0.0185903876044856</v>
+      </c>
+      <c r="K63">
+        <v>0.05387544405118957</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.01190309593445554</v>
+        <v>0.0185918344709678</v>
       </c>
       <c r="C64">
-        <v>-0.1005933860108379</v>
+        <v>0.09872692883089705</v>
       </c>
       <c r="D64">
-        <v>0.06246975392169144</v>
+        <v>0.03014109857925445</v>
       </c>
       <c r="E64">
-        <v>0.03685356878830242</v>
+        <v>0.02950824305952627</v>
       </c>
       <c r="F64">
-        <v>-0.02047420925262676</v>
+        <v>-0.05003538136556774</v>
       </c>
       <c r="G64">
-        <v>-0.01839996315248095</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.02151182950988782</v>
+      </c>
+      <c r="H64">
+        <v>0.03279830202674968</v>
+      </c>
+      <c r="I64">
+        <v>0.0180298623772555</v>
+      </c>
+      <c r="J64">
+        <v>0.03651914239052782</v>
+      </c>
+      <c r="K64">
+        <v>0.09351566262331167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.03230385947516977</v>
+        <v>0.03208192427606463</v>
       </c>
       <c r="C65">
-        <v>-0.05949554551539187</v>
+        <v>0.08491222150885636</v>
       </c>
       <c r="D65">
-        <v>0.00993276887279964</v>
+        <v>0.007360712081133788</v>
       </c>
       <c r="E65">
-        <v>0.1059759464469019</v>
+        <v>0.01999593376299929</v>
       </c>
       <c r="F65">
-        <v>-0.03411492280356907</v>
+        <v>-0.06398971677977991</v>
       </c>
       <c r="G65">
-        <v>-0.03764243783153039</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.1256672557693367</v>
+      </c>
+      <c r="H65">
+        <v>-0.006110594926540459</v>
+      </c>
+      <c r="I65">
+        <v>0.0921201345412014</v>
+      </c>
+      <c r="J65">
+        <v>-0.05526979804622404</v>
+      </c>
+      <c r="K65">
+        <v>-0.0144984686902962</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.01462847906090759</v>
+        <v>0.01323331626505017</v>
       </c>
       <c r="C66">
-        <v>-0.1628822543213472</v>
+        <v>0.1654037777537013</v>
       </c>
       <c r="D66">
-        <v>-0.003156023655739825</v>
+        <v>0.0334786627054577</v>
       </c>
       <c r="E66">
-        <v>0.1102499426197327</v>
+        <v>-0.01063064435070476</v>
       </c>
       <c r="F66">
-        <v>-0.02478799694387142</v>
+        <v>-0.03522966044650575</v>
       </c>
       <c r="G66">
-        <v>-0.05832177743000952</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.03937019816209784</v>
+      </c>
+      <c r="H66">
+        <v>0.04348393492412054</v>
+      </c>
+      <c r="I66">
+        <v>0.04319721776080641</v>
+      </c>
+      <c r="J66">
+        <v>-0.007763351303245213</v>
+      </c>
+      <c r="K66">
+        <v>0.03017712168860605</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.02637361607510224</v>
+        <v>0.02207194088738558</v>
       </c>
       <c r="C67">
-        <v>-0.03561264721311747</v>
+        <v>0.05539427885597308</v>
       </c>
       <c r="D67">
-        <v>0.04939412064869816</v>
+        <v>0.03706750244466778</v>
       </c>
       <c r="E67">
-        <v>-0.001572363448767686</v>
+        <v>0.02899666561384689</v>
       </c>
       <c r="F67">
-        <v>-0.02687718046738073</v>
+        <v>0.006137356168465514</v>
       </c>
       <c r="G67">
-        <v>-0.02163531714226561</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.02608256214871783</v>
+      </c>
+      <c r="H67">
+        <v>0.05544133312358614</v>
+      </c>
+      <c r="I67">
+        <v>-0.05131565365201792</v>
+      </c>
+      <c r="J67">
+        <v>0.04357779906697556</v>
+      </c>
+      <c r="K67">
+        <v>0.03681844793525312</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.2748671465856606</v>
+        <v>0.2933785682069532</v>
       </c>
       <c r="C68">
-        <v>0.06574846874392863</v>
+        <v>-0.05638510948670498</v>
       </c>
       <c r="D68">
-        <v>-0.02129716648849951</v>
+        <v>-0.02820447331964523</v>
       </c>
       <c r="E68">
-        <v>-0.004960411037560029</v>
+        <v>-0.009465389904481102</v>
       </c>
       <c r="F68">
-        <v>0.01393287412452169</v>
+        <v>-0.03583125344293462</v>
       </c>
       <c r="G68">
-        <v>0.03703642700492393</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02901116244928906</v>
+      </c>
+      <c r="H68">
+        <v>-0.01437291755408761</v>
+      </c>
+      <c r="I68">
+        <v>-0.05173305622000383</v>
+      </c>
+      <c r="J68">
+        <v>-0.01405992035174514</v>
+      </c>
+      <c r="K68">
+        <v>0.03736491510814919</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.01206026570180029</v>
+        <v>0.008481321678311934</v>
       </c>
       <c r="C69">
-        <v>-0.1029021685015175</v>
+        <v>0.07608871462973284</v>
       </c>
       <c r="D69">
-        <v>0.05370619186041508</v>
+        <v>0.0271661840305309</v>
       </c>
       <c r="E69">
-        <v>-0.04161200147083872</v>
+        <v>0.0002388496250408866</v>
       </c>
       <c r="F69">
-        <v>-0.00524558683628638</v>
+        <v>0.01719861826056875</v>
       </c>
       <c r="G69">
-        <v>0.004005593671588771</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.001822930943809348</v>
+      </c>
+      <c r="H69">
+        <v>0.05975586386157948</v>
+      </c>
+      <c r="I69">
+        <v>-0.02555043307496636</v>
+      </c>
+      <c r="J69">
+        <v>0.001015869600868086</v>
+      </c>
+      <c r="K69">
+        <v>0.03527105414891125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2795590502633042</v>
+        <v>0.2754599423938608</v>
       </c>
       <c r="C71">
-        <v>0.0811811050708629</v>
+        <v>-0.07838661421771569</v>
       </c>
       <c r="D71">
-        <v>-0.02078328241426256</v>
+        <v>-0.0156632392161354</v>
       </c>
       <c r="E71">
-        <v>0.00820065468185216</v>
+        <v>0.02188665728998718</v>
       </c>
       <c r="F71">
-        <v>-0.01428807734782567</v>
+        <v>-0.04583661837382971</v>
       </c>
       <c r="G71">
-        <v>0.02557739113928137</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.02591525811160112</v>
+      </c>
+      <c r="H71">
+        <v>0.0465233330673447</v>
+      </c>
+      <c r="I71">
+        <v>-0.1189190439756988</v>
+      </c>
+      <c r="J71">
+        <v>-0.05805500127664712</v>
+      </c>
+      <c r="K71">
+        <v>0.05597842792844653</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.0402590590570572</v>
+        <v>0.05546714391490418</v>
       </c>
       <c r="C72">
-        <v>-0.1533927744550582</v>
+        <v>0.1462624970034994</v>
       </c>
       <c r="D72">
-        <v>0.0309942015540674</v>
+        <v>0.02542389329842673</v>
       </c>
       <c r="E72">
-        <v>0.09440716710531168</v>
+        <v>0.003946769657318956</v>
       </c>
       <c r="F72">
-        <v>-0.08461378001935406</v>
+        <v>-0.00629942116081506</v>
       </c>
       <c r="G72">
-        <v>-0.04732257220705397</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.06047459318157171</v>
+      </c>
+      <c r="H72">
+        <v>-0.03264786655133528</v>
+      </c>
+      <c r="I72">
+        <v>0.09663084078769725</v>
+      </c>
+      <c r="J72">
+        <v>-0.0474175987468391</v>
+      </c>
+      <c r="K72">
+        <v>-0.01402879830333906</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.08263477976250247</v>
+        <v>0.1514691022927979</v>
       </c>
       <c r="C73">
-        <v>-0.14696148195711</v>
+        <v>0.192654689946243</v>
       </c>
       <c r="D73">
-        <v>0.0861850048723555</v>
+        <v>0.06704655839577027</v>
       </c>
       <c r="E73">
-        <v>0.04436302232788375</v>
+        <v>-0.02464681985242434</v>
       </c>
       <c r="F73">
-        <v>-0.1467459233345935</v>
+        <v>0.1576559526673756</v>
       </c>
       <c r="G73">
-        <v>-0.3950004571478646</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.4215178211088854</v>
+      </c>
+      <c r="H73">
+        <v>-0.3046998071621029</v>
+      </c>
+      <c r="I73">
+        <v>-0.07043478341571782</v>
+      </c>
+      <c r="J73">
+        <v>-0.1001667868836637</v>
+      </c>
+      <c r="K73">
+        <v>-0.07755719145475308</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.02040988665592802</v>
+        <v>0.03640082090434375</v>
       </c>
       <c r="C74">
-        <v>-0.1048859933968999</v>
+        <v>0.1056168103865433</v>
       </c>
       <c r="D74">
-        <v>0.06338183958893273</v>
+        <v>0.04020324766438427</v>
       </c>
       <c r="E74">
-        <v>-0.08713312042134343</v>
+        <v>0.008114743283848844</v>
       </c>
       <c r="F74">
-        <v>0.00856259106075819</v>
+        <v>0.07040707211369751</v>
       </c>
       <c r="G74">
-        <v>-0.008564295982409069</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.04071168027016694</v>
+      </c>
+      <c r="H74">
+        <v>0.003965657591647737</v>
+      </c>
+      <c r="I74">
+        <v>0.003699651796483818</v>
+      </c>
+      <c r="J74">
+        <v>-0.01220124920264939</v>
+      </c>
+      <c r="K74">
+        <v>0.06741945306077325</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.07250207121142804</v>
+        <v>0.06270532326865114</v>
       </c>
       <c r="C75">
-        <v>-0.1771251965576347</v>
+        <v>0.1849788356858831</v>
       </c>
       <c r="D75">
-        <v>0.09776986772379849</v>
+        <v>0.0748283671845463</v>
       </c>
       <c r="E75">
-        <v>-0.2370889615551682</v>
+        <v>0.0718419312306184</v>
       </c>
       <c r="F75">
-        <v>0.0145917785849404</v>
+        <v>0.1813316657925248</v>
       </c>
       <c r="G75">
-        <v>0.06544728588144649</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1849211526795557</v>
+      </c>
+      <c r="H75">
+        <v>-0.02962670358929243</v>
+      </c>
+      <c r="I75">
+        <v>-0.1309217670336574</v>
+      </c>
+      <c r="J75">
+        <v>0.06822285275287364</v>
+      </c>
+      <c r="K75">
+        <v>0.05356412898951013</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.04523953015178563</v>
+        <v>0.04155739451945799</v>
       </c>
       <c r="C76">
-        <v>-0.1248765292628328</v>
+        <v>0.1329091235846657</v>
       </c>
       <c r="D76">
-        <v>0.06044526706345501</v>
+        <v>0.06330136144990904</v>
       </c>
       <c r="E76">
-        <v>-0.1086799735815194</v>
+        <v>0.01716071895196786</v>
       </c>
       <c r="F76">
-        <v>0.004144264664274312</v>
+        <v>0.1065301175794768</v>
       </c>
       <c r="G76">
-        <v>-0.04876772401852184</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.04888875618840705</v>
+      </c>
+      <c r="H76">
+        <v>-0.004704274664904627</v>
+      </c>
+      <c r="I76">
+        <v>0.004259245299807968</v>
+      </c>
+      <c r="J76">
+        <v>0.0270699615100929</v>
+      </c>
+      <c r="K76">
+        <v>0.1509819310178023</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.09392927958418087</v>
+        <v>0.04740370733173534</v>
       </c>
       <c r="C77">
-        <v>-0.2217272823530969</v>
+        <v>0.3221275647398139</v>
       </c>
       <c r="D77">
-        <v>-0.8730612123245093</v>
+        <v>-0.9322435111850838</v>
       </c>
       <c r="E77">
-        <v>-0.2818255382759503</v>
+        <v>0.05045310087500187</v>
       </c>
       <c r="F77">
-        <v>-0.1756542205014437</v>
+        <v>0.06891177604817408</v>
       </c>
       <c r="G77">
-        <v>-0.09336972847650572</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>5.655718988757605e-06</v>
+      </c>
+      <c r="H77">
+        <v>0.05168278554553264</v>
+      </c>
+      <c r="I77">
+        <v>-0.003976326604410759</v>
+      </c>
+      <c r="J77">
+        <v>0.003548827874460223</v>
+      </c>
+      <c r="K77">
+        <v>0.00583377060472331</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.05193447340748877</v>
+        <v>0.03663184951058419</v>
       </c>
       <c r="C78">
-        <v>-0.168478455240799</v>
+        <v>0.1276720072556672</v>
       </c>
       <c r="D78">
-        <v>0.05908970462658174</v>
+        <v>0.085096821016964</v>
       </c>
       <c r="E78">
-        <v>0.02167247823101153</v>
+        <v>-0.03832640935370543</v>
       </c>
       <c r="F78">
-        <v>0.1647307629870506</v>
+        <v>0.0233114389420384</v>
       </c>
       <c r="G78">
-        <v>0.0195499989231961</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.1130066356225718</v>
+      </c>
+      <c r="H78">
+        <v>0.07966327610176561</v>
+      </c>
+      <c r="I78">
+        <v>0.1647577316019489</v>
+      </c>
+      <c r="J78">
+        <v>-0.4624870375751953</v>
+      </c>
+      <c r="K78">
+        <v>0.02632669272179059</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.05003001424338345</v>
+        <v>0.05618241409371831</v>
       </c>
       <c r="C79">
-        <v>-0.2097698465030025</v>
+        <v>0.1639359548440736</v>
       </c>
       <c r="D79">
-        <v>0.108973518336089</v>
+        <v>0.05762816388257731</v>
       </c>
       <c r="E79">
-        <v>-0.2171860761332881</v>
+        <v>0.0006871142445810819</v>
       </c>
       <c r="F79">
-        <v>0.1152326660309837</v>
+        <v>0.1402457285326795</v>
       </c>
       <c r="G79">
-        <v>0.06335980338040037</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.2188186718691052</v>
+      </c>
+      <c r="H79">
+        <v>0.003990005784057585</v>
+      </c>
+      <c r="I79">
+        <v>-0.08378664250735982</v>
+      </c>
+      <c r="J79">
+        <v>-0.03033635839400864</v>
+      </c>
+      <c r="K79">
+        <v>0.02954444762863184</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.01549488949946484</v>
+        <v>0.01961012077549786</v>
       </c>
       <c r="C80">
-        <v>-0.05453968097141201</v>
+        <v>0.05446609419086895</v>
       </c>
       <c r="D80">
-        <v>0.04727847696262896</v>
+        <v>0.04030132005424945</v>
       </c>
       <c r="E80">
-        <v>-0.00831674449119092</v>
+        <v>-0.0494963774513164</v>
       </c>
       <c r="F80">
-        <v>0.01350629180531829</v>
+        <v>-0.02330272922779369</v>
       </c>
       <c r="G80">
-        <v>-0.01822000691736785</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.03825584256632875</v>
+      </c>
+      <c r="H80">
+        <v>-0.03534801347380617</v>
+      </c>
+      <c r="I80">
+        <v>-0.06456659045427052</v>
+      </c>
+      <c r="J80">
+        <v>0.08815064917338557</v>
+      </c>
+      <c r="K80">
+        <v>0.03610094625605027</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.01632671598943448</v>
+        <v>0.01601529917981413</v>
       </c>
       <c r="C81">
-        <v>-0.1143961404939015</v>
+        <v>0.1108426579310817</v>
       </c>
       <c r="D81">
-        <v>0.07667102204324674</v>
+        <v>0.04552622412297679</v>
       </c>
       <c r="E81">
-        <v>-0.1716572767435753</v>
+        <v>0.004971093267504922</v>
       </c>
       <c r="F81">
-        <v>0.0222576023250996</v>
+        <v>0.09052155350318818</v>
       </c>
       <c r="G81">
-        <v>-0.001185389724799036</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1121136910541544</v>
+      </c>
+      <c r="H81">
+        <v>0.04768218309501383</v>
+      </c>
+      <c r="I81">
+        <v>-0.06389502536971234</v>
+      </c>
+      <c r="J81">
+        <v>0.02606083799699497</v>
+      </c>
+      <c r="K81">
+        <v>0.09782679540847979</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.04498501366536849</v>
+        <v>0.04615292434361923</v>
       </c>
       <c r="C82">
-        <v>-0.1189695194874405</v>
+        <v>0.1170620943065279</v>
       </c>
       <c r="D82">
-        <v>0.08203509200213084</v>
+        <v>0.06202304128135653</v>
       </c>
       <c r="E82">
-        <v>-0.1102412416743167</v>
+        <v>0.005490560862752978</v>
       </c>
       <c r="F82">
-        <v>-0.01431968301481949</v>
+        <v>0.09993232793300502</v>
       </c>
       <c r="G82">
-        <v>-0.04376641492851133</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.06554420447720419</v>
+      </c>
+      <c r="H82">
+        <v>0.01773705920584993</v>
+      </c>
+      <c r="I82">
+        <v>-0.02178094755306648</v>
+      </c>
+      <c r="J82">
+        <v>0.01068392886545508</v>
+      </c>
+      <c r="K82">
+        <v>0.1118667834045909</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.005573024961933989</v>
+        <v>-0.001608210490224512</v>
       </c>
       <c r="C83">
-        <v>-0.04144326524384469</v>
+        <v>0.004791184253952596</v>
       </c>
       <c r="D83">
-        <v>-0.1824500483572488</v>
+        <v>-0.05846396265149971</v>
       </c>
       <c r="E83">
-        <v>0.07791726865174177</v>
+        <v>-0.9584625504461228</v>
       </c>
       <c r="F83">
-        <v>0.8629100403180959</v>
+        <v>0.01812395469409733</v>
       </c>
       <c r="G83">
-        <v>-0.3051528897210785</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.1008675981381233</v>
+      </c>
+      <c r="H83">
+        <v>-0.08113470344871804</v>
+      </c>
+      <c r="I83">
+        <v>0.05251887684832005</v>
+      </c>
+      <c r="J83">
+        <v>0.01738158724903574</v>
+      </c>
+      <c r="K83">
+        <v>0.1020243020930304</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.003481216315661844</v>
+        <v>-0.0006437615711718821</v>
       </c>
       <c r="C84">
-        <v>-0.04265117657386087</v>
+        <v>0.04227265231283951</v>
       </c>
       <c r="D84">
-        <v>0.01480939985541212</v>
+        <v>0.05789501891279845</v>
       </c>
       <c r="E84">
-        <v>0.08269032697882542</v>
+        <v>0.02131736394422415</v>
       </c>
       <c r="F84">
-        <v>-0.02766024764340316</v>
+        <v>-0.08986697946481025</v>
       </c>
       <c r="G84">
-        <v>0.1396333134930072</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.05432744525646493</v>
+      </c>
+      <c r="H84">
+        <v>0.0725748749375348</v>
+      </c>
+      <c r="I84">
+        <v>0.104760566037655</v>
+      </c>
+      <c r="J84">
+        <v>0.07498610121849837</v>
+      </c>
+      <c r="K84">
+        <v>0.0751365531607982</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.04241033047687744</v>
+        <v>0.03053059630773786</v>
       </c>
       <c r="C85">
-        <v>-0.1511265606956997</v>
+        <v>0.129960932036426</v>
       </c>
       <c r="D85">
-        <v>0.08719341466256557</v>
+        <v>0.07012561749374324</v>
       </c>
       <c r="E85">
-        <v>-0.206880104275116</v>
+        <v>0.01702706377681641</v>
       </c>
       <c r="F85">
-        <v>0.05616299984420935</v>
+        <v>0.1806097318763717</v>
       </c>
       <c r="G85">
-        <v>0.03350664438778298</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1471479950312934</v>
+      </c>
+      <c r="H85">
+        <v>-0.01452310932349138</v>
+      </c>
+      <c r="I85">
+        <v>-0.07967107260886484</v>
+      </c>
+      <c r="J85">
+        <v>0.04691520829519771</v>
+      </c>
+      <c r="K85">
+        <v>0.1561765868957261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.02236521937131712</v>
+        <v>0.01609417955212437</v>
       </c>
       <c r="C86">
-        <v>-0.05781515789370974</v>
+        <v>0.07211721017967677</v>
       </c>
       <c r="D86">
-        <v>-0.04390800011689375</v>
+        <v>0.02208567159138558</v>
       </c>
       <c r="E86">
-        <v>0.05546819727289531</v>
+        <v>-0.003369624058139875</v>
       </c>
       <c r="F86">
-        <v>-0.04575095960502699</v>
+        <v>-0.06998694315643934</v>
       </c>
       <c r="G86">
-        <v>0.01770305944241564</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.08359088829543149</v>
+      </c>
+      <c r="H86">
+        <v>0.05311684822719744</v>
+      </c>
+      <c r="I86">
+        <v>-0.1187625504818891</v>
+      </c>
+      <c r="J86">
+        <v>-0.1467187639349916</v>
+      </c>
+      <c r="K86">
+        <v>-0.02219658669654995</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.06558671106330594</v>
+        <v>0.0246859976149055</v>
       </c>
       <c r="C87">
-        <v>-0.1373232489554364</v>
+        <v>0.1233495386835557</v>
       </c>
       <c r="D87">
-        <v>0.003546977848553915</v>
+        <v>0.008841841205331422</v>
       </c>
       <c r="E87">
-        <v>0.104498497470628</v>
+        <v>0.001245872903637884</v>
       </c>
       <c r="F87">
-        <v>0.01373830566906544</v>
+        <v>-0.08935391897479544</v>
       </c>
       <c r="G87">
-        <v>0.0006141249715746276</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.01047562478585221</v>
+      </c>
+      <c r="H87">
+        <v>0.01497957153242877</v>
+      </c>
+      <c r="I87">
+        <v>0.107770587576614</v>
+      </c>
+      <c r="J87">
+        <v>-0.0856380149795435</v>
+      </c>
+      <c r="K87">
+        <v>0.09433819826469401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.01571562796130443</v>
+        <v>0.03799612040880887</v>
       </c>
       <c r="C88">
-        <v>-0.06486038697172934</v>
+        <v>0.07728890060499442</v>
       </c>
       <c r="D88">
-        <v>0.0575461496035326</v>
+        <v>0.04139456266739381</v>
       </c>
       <c r="E88">
-        <v>-0.03989587009272122</v>
+        <v>0.01578159531479979</v>
       </c>
       <c r="F88">
-        <v>-0.03866147200943435</v>
+        <v>0.009953652273214169</v>
       </c>
       <c r="G88">
-        <v>-0.02506403190398813</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.01998435466709762</v>
+      </c>
+      <c r="H88">
+        <v>-0.003874209535545778</v>
+      </c>
+      <c r="I88">
+        <v>-0.03503312469845676</v>
+      </c>
+      <c r="J88">
+        <v>0.08998565973662633</v>
+      </c>
+      <c r="K88">
+        <v>0.06763643884173724</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.3872822926007483</v>
+        <v>0.3937876944894975</v>
       </c>
       <c r="C89">
-        <v>0.1182334657420803</v>
+        <v>-0.110077922579206</v>
       </c>
       <c r="D89">
-        <v>0.1123398451449575</v>
+        <v>-0.02344677690199761</v>
       </c>
       <c r="E89">
-        <v>0.0492074053202959</v>
+        <v>0.02078934668439678</v>
       </c>
       <c r="F89">
-        <v>0.05672919135467731</v>
+        <v>-0.06165804326708334</v>
       </c>
       <c r="G89">
-        <v>0.06497098234793766</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.01989508738452432</v>
+      </c>
+      <c r="H89">
+        <v>-0.00359084171765596</v>
+      </c>
+      <c r="I89">
+        <v>0.7294484946702575</v>
+      </c>
+      <c r="J89">
+        <v>0.1043493065673475</v>
+      </c>
+      <c r="K89">
+        <v>-0.02847000578676065</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.2980458079414426</v>
+        <v>0.3126393633396103</v>
       </c>
       <c r="C90">
-        <v>0.05124874442785152</v>
+        <v>-0.06894163156067033</v>
       </c>
       <c r="D90">
-        <v>0.001808611377929677</v>
+        <v>-0.007409718256388548</v>
       </c>
       <c r="E90">
-        <v>0.02235404323005824</v>
+        <v>-0.02144950497714148</v>
       </c>
       <c r="F90">
-        <v>0.05094115615894197</v>
+        <v>-0.02040888898461806</v>
       </c>
       <c r="G90">
-        <v>-0.01870462823405386</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02180020940147652</v>
+      </c>
+      <c r="H90">
+        <v>0.004707283402359211</v>
+      </c>
+      <c r="I90">
+        <v>-0.09126675698204355</v>
+      </c>
+      <c r="J90">
+        <v>-0.02558565915636307</v>
+      </c>
+      <c r="K90">
+        <v>0.01282348340151385</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.04106110154183811</v>
+        <v>0.05202091184382179</v>
       </c>
       <c r="C91">
-        <v>-0.1186985478831824</v>
+        <v>0.10575127377345</v>
       </c>
       <c r="D91">
-        <v>0.04662089402897654</v>
+        <v>0.03622030032834296</v>
       </c>
       <c r="E91">
-        <v>-0.1245823805372299</v>
+        <v>-0.02496125626205157</v>
       </c>
       <c r="F91">
-        <v>0.03345412792937155</v>
+        <v>0.08738999080963543</v>
       </c>
       <c r="G91">
-        <v>0.007160905365224779</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.07864110989534055</v>
+      </c>
+      <c r="H91">
+        <v>-0.01327115518602847</v>
+      </c>
+      <c r="I91">
+        <v>-0.01468140042688006</v>
+      </c>
+      <c r="J91">
+        <v>0.047124480755852</v>
+      </c>
+      <c r="K91">
+        <v>0.04406324359910656</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3702317110468822</v>
+        <v>0.3540914737242829</v>
       </c>
       <c r="C92">
-        <v>0.1414219235394639</v>
+        <v>-0.1308680251993704</v>
       </c>
       <c r="D92">
-        <v>-0.007943351328032639</v>
+        <v>-0.04289374389544726</v>
       </c>
       <c r="E92">
-        <v>0.01225353519526196</v>
+        <v>0.04024513837159107</v>
       </c>
       <c r="F92">
-        <v>-0.09400487281431107</v>
+        <v>-0.05982847431534627</v>
       </c>
       <c r="G92">
-        <v>0.03797257031681143</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.02823574897928043</v>
+      </c>
+      <c r="H92">
+        <v>0.08319006523590959</v>
+      </c>
+      <c r="I92">
+        <v>-0.1615322587550938</v>
+      </c>
+      <c r="J92">
+        <v>-0.009084206277223962</v>
+      </c>
+      <c r="K92">
+        <v>-0.05716857119948873</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.2958052807839659</v>
+        <v>0.3090137554183591</v>
       </c>
       <c r="C93">
-        <v>0.09956347008695757</v>
+        <v>-0.1125019288872654</v>
       </c>
       <c r="D93">
-        <v>0.02716238049470521</v>
+        <v>0.003425704539122823</v>
       </c>
       <c r="E93">
-        <v>0.02293008714275078</v>
+        <v>-0.004106592201875693</v>
       </c>
       <c r="F93">
-        <v>0.03101629501709519</v>
+        <v>-0.02842890856219709</v>
       </c>
       <c r="G93">
-        <v>0.04812063841323164</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.05431985035318738</v>
+      </c>
+      <c r="H93">
+        <v>0.0352736346506815</v>
+      </c>
+      <c r="I93">
+        <v>-0.1063107776472649</v>
+      </c>
+      <c r="J93">
+        <v>-0.01887903074689281</v>
+      </c>
+      <c r="K93">
+        <v>0.04760696923071678</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.08547542076977993</v>
+        <v>0.07656492623556721</v>
       </c>
       <c r="C94">
-        <v>-0.223118581592109</v>
+        <v>0.1863887648994867</v>
       </c>
       <c r="D94">
-        <v>0.1603402764982614</v>
+        <v>0.08791809621250035</v>
       </c>
       <c r="E94">
-        <v>-0.3964379583785159</v>
+        <v>0.03185772315282583</v>
       </c>
       <c r="F94">
-        <v>0.133840466129733</v>
+        <v>0.2954181289625731</v>
       </c>
       <c r="G94">
-        <v>0.328802141985293</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.4293245773741322</v>
+      </c>
+      <c r="H94">
+        <v>-0.163983294237033</v>
+      </c>
+      <c r="I94">
+        <v>0.1370222845212254</v>
+      </c>
+      <c r="J94">
+        <v>0.2661615601145275</v>
+      </c>
+      <c r="K94">
+        <v>-0.5238847672041183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.04675147275551425</v>
+        <v>0.03763677445443266</v>
       </c>
       <c r="C95">
-        <v>-0.07791369647713156</v>
+        <v>0.1248258130246675</v>
       </c>
       <c r="D95">
-        <v>0.005905826211358278</v>
+        <v>0.03818860343203472</v>
       </c>
       <c r="E95">
-        <v>0.01745703482767031</v>
+        <v>0.0453906252577558</v>
       </c>
       <c r="F95">
-        <v>-0.07714514461772903</v>
+        <v>0.02705893233347635</v>
       </c>
       <c r="G95">
-        <v>-0.1661652412931346</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.1204406006340136</v>
+      </c>
+      <c r="H95">
+        <v>0.06841895935151944</v>
+      </c>
+      <c r="I95">
+        <v>0.139267796894613</v>
+      </c>
+      <c r="J95">
+        <v>0.1748037438516367</v>
+      </c>
+      <c r="K95">
+        <v>0.4171249301422724</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.009570886209977135</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.01605913878643839</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.01738208073508122</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>0.03372721968043373</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>-0.02882270826129822</v>
       </c>
       <c r="G97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.04076616345006941</v>
+      </c>
+      <c r="H97">
+        <v>0.0009165460195837449</v>
+      </c>
+      <c r="I97">
+        <v>0.01572038765329227</v>
+      </c>
+      <c r="J97">
+        <v>-0.00732288708001784</v>
+      </c>
+      <c r="K97">
+        <v>-0.02325593163445785</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.08515901674622559</v>
+        <v>0.132122017751502</v>
       </c>
       <c r="C98">
-        <v>-0.1445122397560252</v>
+        <v>0.1582355824531213</v>
       </c>
       <c r="D98">
-        <v>0.07244690729019315</v>
+        <v>0.07808834220714288</v>
       </c>
       <c r="E98">
-        <v>0.07751188619019682</v>
+        <v>-0.02241210201473485</v>
       </c>
       <c r="F98">
-        <v>-0.08889713053530081</v>
+        <v>0.1316915420747513</v>
       </c>
       <c r="G98">
-        <v>-0.2422777355613309</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.3650189769729674</v>
+      </c>
+      <c r="H98">
+        <v>-0.3186111908497982</v>
+      </c>
+      <c r="I98">
+        <v>-0.083617553444124</v>
+      </c>
+      <c r="J98">
+        <v>-0.1094378286761031</v>
+      </c>
+      <c r="K98">
+        <v>-0.1929069032227825</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.004407164328926805</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.02080064902406172</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.004866072763184229</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.00773425483607631</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.02993009786268612</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.00977624775610807</v>
+      </c>
+      <c r="H99">
+        <v>0.07472650759616593</v>
+      </c>
+      <c r="I99">
+        <v>0.0218116785663647</v>
+      </c>
+      <c r="J99">
+        <v>-0.009292711415151637</v>
+      </c>
+      <c r="K99">
+        <v>-0.1766370621884413</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.02166478427240876</v>
+        <v>0.01421220935130898</v>
       </c>
       <c r="C101">
-        <v>-0.05614110800138745</v>
+        <v>0.07583272789461321</v>
       </c>
       <c r="D101">
-        <v>0.01880349914565655</v>
+        <v>0.04136128666871446</v>
       </c>
       <c r="E101">
-        <v>0.09714502475408576</v>
+        <v>-0.05421527636706228</v>
       </c>
       <c r="F101">
-        <v>-0.02773992233509839</v>
+        <v>-0.06477757221957867</v>
       </c>
       <c r="G101">
-        <v>-0.07701301328325399</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1386258384711154</v>
+      </c>
+      <c r="H101">
+        <v>0.3020983314102685</v>
+      </c>
+      <c r="I101">
+        <v>0.04402553929002623</v>
+      </c>
+      <c r="J101">
+        <v>0.1653595635045624</v>
+      </c>
+      <c r="K101">
+        <v>-0.2321356623605401</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.01563582020597692</v>
+        <v>0.004924315086907174</v>
       </c>
       <c r="C102">
-        <v>-0.06994255063509414</v>
+        <v>0.03163738433784256</v>
       </c>
       <c r="D102">
-        <v>0.02403701361258209</v>
+        <v>0.008301121074798603</v>
       </c>
       <c r="E102">
-        <v>-0.05625376004577112</v>
+        <v>-0.008128420038526598</v>
       </c>
       <c r="F102">
-        <v>0.03044372102491836</v>
+        <v>0.02356565746479656</v>
       </c>
       <c r="G102">
-        <v>-0.001893014422980702</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.03599713898534022</v>
+      </c>
+      <c r="H102">
+        <v>0.01053395273518475</v>
+      </c>
+      <c r="I102">
+        <v>0.01852979079819432</v>
+      </c>
+      <c r="J102">
+        <v>-0.01091373630738866</v>
+      </c>
+      <c r="K102">
+        <v>-0.0226682469824629</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
